--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.2_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.324213244475365</v>
+        <v>0.321088244475365</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.324213244475365, 'ngram_match_score': 0.14368911228074033, 'weighted_ngram_match_score': 0.17579900075585464, 'syntax_match_score': 0.6148648648648649, 'dataflow_match_score': 0.3625}</t>
+          <t>{'codebleu': 0.321088244475365, 'ngram_match_score': 0.14368911228074033, 'weighted_ngram_match_score': 0.17579900075585464, 'syntax_match_score': 0.6148648648648649, 'dataflow_match_score': 0.35}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.2_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.321088244475365</v>
+        <v>0.3023382444753649</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.321088244475365, 'ngram_match_score': 0.14368911228074033, 'weighted_ngram_match_score': 0.17579900075585464, 'syntax_match_score': 0.6148648648648649, 'dataflow_match_score': 0.35}</t>
+          <t>{'codebleu': 0.30233824447536495, 'ngram_match_score': 0.14368911228074033, 'weighted_ngram_match_score': 0.17579900075585464, 'syntax_match_score': 0.6148648648648649, 'dataflow_match_score': 0.275}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
